--- a/VersionRecords/Version 5.1.7.1 20161214/版本Bug和特性计划及评审表v5.1.7.1.xlsx
+++ b/VersionRecords/Version 5.1.7.1 20161214/版本Bug和特性计划及评审表v5.1.7.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.1.7.1 20161214\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.1.7.1 20161214\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.1.7.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.1.7.1 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.1.7.1 新特性|Fix Bug'!$A$1:$U$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -292,35 +292,6 @@
   <si>
     <t>昨天上线失败重新上线</t>
     <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-  </si>
-  <si>
-    <t>房东PC、房东APP过滤举报数据</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-  </si>
-  <si>
-    <t>房东PC、房东APP</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙苏文</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>磐石组</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
   </si>
 </sst>
 </file>
@@ -990,6 +961,24 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,24 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1418,39 +1389,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="32" customWidth="1"/>
+    <col min="2" max="3" width="9.88671875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="33" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="32" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="33" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="32" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="32" customWidth="1"/>
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="33" customWidth="1"/>
     <col min="18" max="18" width="12" style="34" customWidth="1"/>
     <col min="19" max="19" width="17" style="34" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
-    <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" style="34" customWidth="1"/>
+    <col min="21" max="21" width="41.88671875" style="33" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1515,56 +1486,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="86">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="77">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="89">
+      <c r="H2" s="80">
         <v>42717</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="89">
+      <c r="J2" s="80">
         <v>42717</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="90" t="s">
+      <c r="L2" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="88" t="s">
+      <c r="N2" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="90" t="s">
+      <c r="O2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="89">
+      <c r="P2" s="80">
         <v>42717</v>
       </c>
-      <c r="Q2" s="90" t="s">
+      <c r="Q2" s="81" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="44"/>
@@ -1572,70 +1543,36 @@
       <c r="T2" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="U2" s="91" t="s">
+      <c r="U2" s="82" t="s">
         <v>79</v>
       </c>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A3" s="86">
-        <v>2</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="89">
-        <v>42718</v>
-      </c>
-      <c r="I3" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="89">
-        <v>42718</v>
-      </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" s="89">
-        <v>42718</v>
-      </c>
-      <c r="Q3" s="90" t="s">
-        <v>78</v>
-      </c>
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="47"/>
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
-      <c r="T3" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="U3" s="91"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="53"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -1656,10 +1593,10 @@
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
       <c r="T4" s="52"/>
-      <c r="U4" s="53"/>
+      <c r="U4" s="55"/>
       <c r="V4" s="54"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1683,7 +1620,7 @@
       <c r="U5" s="55"/>
       <c r="V5" s="54"/>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -1707,7 +1644,7 @@
       <c r="U6" s="55"/>
       <c r="V6" s="54"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1731,11 +1668,11 @@
       <c r="U7" s="55"/>
       <c r="V7" s="54"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -1749,17 +1686,17 @@
       <c r="O8" s="47"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="47"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
       <c r="T8" s="52"/>
       <c r="U8" s="55"/>
       <c r="V8" s="54"/>
     </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
-      <c r="D9" s="40"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -1769,17 +1706,17 @@
       <c r="K9" s="38"/>
       <c r="L9" s="47"/>
       <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="47"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="47"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
       <c r="T9" s="52"/>
       <c r="U9" s="55"/>
       <c r="V9" s="54"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1793,7 +1730,7 @@
       <c r="K10" s="38"/>
       <c r="L10" s="47"/>
       <c r="M10" s="38"/>
-      <c r="N10" s="48"/>
+      <c r="N10" s="38"/>
       <c r="O10" s="47"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="47"/>
@@ -1803,7 +1740,7 @@
       <c r="U10" s="55"/>
       <c r="V10" s="54"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1827,7 +1764,7 @@
       <c r="U11" s="55"/>
       <c r="V11" s="54"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1851,7 +1788,7 @@
       <c r="U12" s="55"/>
       <c r="V12" s="54"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -1875,7 +1812,7 @@
       <c r="U13" s="55"/>
       <c r="V13" s="54"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -1884,7 +1821,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="38"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="39"/>
       <c r="K14" s="38"/>
       <c r="L14" s="47"/>
@@ -1895,11 +1832,11 @@
       <c r="Q14" s="47"/>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
-      <c r="T14" s="52"/>
+      <c r="T14" s="44"/>
       <c r="U14" s="55"/>
       <c r="V14" s="54"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -1923,7 +1860,7 @@
       <c r="U15" s="55"/>
       <c r="V15" s="54"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -1934,20 +1871,20 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="K16" s="49"/>
       <c r="L16" s="47"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
-      <c r="O16" s="47"/>
+      <c r="O16" s="50"/>
       <c r="P16" s="39"/>
-      <c r="Q16" s="47"/>
+      <c r="Q16" s="50"/>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="55"/>
+      <c r="U16" s="57"/>
       <c r="V16" s="54"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1958,20 +1895,19 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="49"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="47"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="50"/>
+      <c r="O17" s="47"/>
       <c r="P17" s="39"/>
-      <c r="Q17" s="50"/>
+      <c r="Q17" s="47"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="54"/>
-    </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U17" s="45"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1986,7 +1922,7 @@
       <c r="L18" s="47"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="47"/>
+      <c r="O18" s="44"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="47"/>
       <c r="R18" s="44"/>
@@ -1994,7 +1930,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2009,7 +1945,7 @@
       <c r="L19" s="47"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="44"/>
+      <c r="O19" s="52"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="47"/>
       <c r="R19" s="44"/>
@@ -2017,30 +1953,30 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="51"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="47"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="52"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="47"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
-      <c r="U20" s="45"/>
-    </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U20" s="55"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2063,7 +1999,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="55"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2086,7 +2022,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2104,12 +2040,12 @@
       <c r="O23" s="47"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="55"/>
-    </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="59"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2127,12 +2063,12 @@
       <c r="O24" s="47"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
       <c r="U24" s="59"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2144,7 +2080,7 @@
       <c r="I25" s="38"/>
       <c r="J25" s="39"/>
       <c r="K25" s="38"/>
-      <c r="L25" s="47"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="47"/>
       <c r="O25" s="47"/>
@@ -2152,10 +2088,10 @@
       <c r="Q25" s="47"/>
       <c r="R25" s="60"/>
       <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
+      <c r="T25" s="61"/>
       <c r="U25" s="59"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2175,10 +2111,10 @@
       <c r="Q26" s="47"/>
       <c r="R26" s="60"/>
       <c r="S26" s="60"/>
-      <c r="T26" s="61"/>
+      <c r="T26" s="60"/>
       <c r="U26" s="59"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2190,7 +2126,7 @@
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
       <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
+      <c r="L27" s="47"/>
       <c r="M27" s="38"/>
       <c r="N27" s="47"/>
       <c r="O27" s="47"/>
@@ -2201,7 +2137,7 @@
       <c r="T27" s="60"/>
       <c r="U27" s="59"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2219,12 +2155,12 @@
       <c r="O28" s="47"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="59"/>
-    </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="47"/>
+    </row>
+    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2242,12 +2178,12 @@
       <c r="O29" s="47"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="47"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="47"/>
-    </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="55"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2270,7 +2206,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="55"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2293,7 +2229,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="55"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2304,42 +2240,44 @@
       <c r="H32" s="39"/>
       <c r="I32" s="38"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="38"/>
+      <c r="K32" s="42"/>
       <c r="L32" s="47"/>
       <c r="M32" s="38"/>
       <c r="N32" s="47"/>
       <c r="O32" s="47"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="47"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="55"/>
-    </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="59"/>
+    </row>
+    <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="41"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="38"/>
-      <c r="F33" s="42"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="39"/>
       <c r="I33" s="38"/>
       <c r="J33" s="39"/>
-      <c r="K33" s="42"/>
+      <c r="K33" s="38"/>
       <c r="L33" s="47"/>
       <c r="M33" s="38"/>
-      <c r="N33" s="47"/>
+      <c r="N33" s="38"/>
       <c r="O33" s="47"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="47"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="59"/>
-    </row>
-    <row r="34" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2360,11 +2298,9 @@
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
-      <c r="U34" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U34" s="55"/>
+    </row>
+    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2387,7 +2323,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="55"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2410,7 +2346,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="55"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2433,7 +2369,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="55"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2456,7 +2392,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="55"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2479,7 +2415,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="55"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2502,7 +2438,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="55"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2525,7 +2461,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="55"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2548,7 +2484,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="55"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2571,30 +2507,30 @@
       <c r="T43" s="44"/>
       <c r="U43" s="55"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
-      <c r="D44" s="37"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="39"/>
-      <c r="I44" s="38"/>
+      <c r="I44" s="39"/>
       <c r="J44" s="39"/>
       <c r="K44" s="38"/>
       <c r="L44" s="47"/>
-      <c r="M44" s="38"/>
+      <c r="M44" s="47"/>
       <c r="N44" s="38"/>
       <c r="O44" s="47"/>
       <c r="P44" s="39"/>
       <c r="Q44" s="47"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
       <c r="U44" s="55"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2617,30 +2553,30 @@
       <c r="T45" s="56"/>
       <c r="U45" s="55"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
-      <c r="D46" s="40"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="39"/>
       <c r="I46" s="39"/>
       <c r="J46" s="39"/>
-      <c r="K46" s="38"/>
+      <c r="K46" s="51"/>
       <c r="L46" s="47"/>
       <c r="M46" s="47"/>
       <c r="N46" s="38"/>
       <c r="O46" s="47"/>
       <c r="P46" s="39"/>
       <c r="Q46" s="47"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="55"/>
-    </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="45"/>
+    </row>
+    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2663,7 +2599,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2686,7 +2622,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2709,7 +2645,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2732,7 +2668,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2755,7 +2691,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2778,30 +2714,30 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="38"/>
+    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="46"/>
       <c r="K53" s="51"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="47"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="45"/>
       <c r="R53" s="44"/>
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -2824,7 +2760,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2847,7 +2783,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -2870,7 +2806,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -2893,7 +2829,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -2916,7 +2852,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -2939,7 +2875,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -2962,7 +2898,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -2985,7 +2921,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3008,7 +2944,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3031,7 +2967,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3054,7 +2990,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3077,7 +3013,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3100,7 +3036,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3123,7 +3059,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3146,14 +3082,14 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
       <c r="D69" s="45"/>
       <c r="E69" s="44"/>
       <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="46"/>
       <c r="I69" s="44"/>
       <c r="J69" s="46"/>
@@ -3169,7 +3105,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3192,7 +3128,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3215,7 +3151,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3238,7 +3174,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3261,7 +3197,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3284,13 +3220,13 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
       <c r="D75" s="45"/>
       <c r="E75" s="44"/>
-      <c r="F75" s="38"/>
+      <c r="F75" s="44"/>
       <c r="G75" s="44"/>
       <c r="H75" s="46"/>
       <c r="I75" s="44"/>
@@ -3307,7 +3243,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3330,7 +3266,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3353,7 +3289,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3376,7 +3312,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3399,7 +3335,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3422,7 +3358,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3445,7 +3381,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3468,7 +3404,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3491,7 +3427,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3514,7 +3450,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3537,7 +3473,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3560,7 +3496,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3583,7 +3519,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3606,7 +3542,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3629,7 +3565,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3652,7 +3588,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3675,7 +3611,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3698,7 +3634,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3721,7 +3657,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -3744,7 +3680,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -3767,7 +3703,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -3790,7 +3726,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -3813,7 +3749,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -3836,7 +3772,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -3859,7 +3795,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -3882,7 +3818,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -3905,7 +3841,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -3928,7 +3864,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -3951,7 +3887,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -3974,7 +3910,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -3997,7 +3933,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4020,7 +3956,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4043,7 +3979,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4066,7 +4002,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4089,7 +4025,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4112,7 +4048,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4135,7 +4071,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4158,7 +4094,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4181,7 +4117,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4204,7 +4140,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4227,7 +4163,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4250,7 +4186,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4273,7 +4209,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4296,7 +4232,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4319,7 +4255,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4342,7 +4278,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4365,7 +4301,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4388,7 +4324,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4411,7 +4347,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4434,7 +4370,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4457,7 +4393,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4480,7 +4416,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4503,7 +4439,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4526,7 +4462,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4549,7 +4485,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4572,7 +4508,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4595,7 +4531,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4618,7 +4554,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4641,7 +4577,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4664,7 +4600,7 @@
       <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4682,12 +4618,9 @@
       <c r="O135" s="44"/>
       <c r="P135" s="46"/>
       <c r="Q135" s="45"/>
-      <c r="R135" s="44"/>
-      <c r="S135" s="44"/>
-      <c r="T135" s="44"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4707,7 +4640,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4727,7 +4660,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -4747,7 +4680,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -4767,7 +4700,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -4787,7 +4720,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -4807,7 +4740,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -4827,7 +4760,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -4847,7 +4780,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -4867,7 +4800,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -4887,7 +4820,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -4907,7 +4840,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -4927,7 +4860,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -4947,7 +4880,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -4967,7 +4900,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -4987,7 +4920,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5007,7 +4940,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5027,7 +4960,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5047,7 +4980,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5067,7 +5000,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5087,7 +5020,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5107,7 +5040,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5127,7 +5060,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5147,7 +5080,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5167,7 +5100,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5187,7 +5120,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5207,7 +5140,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5227,7 +5160,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5247,7 +5180,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5267,7 +5200,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5287,7 +5220,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5307,7 +5240,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5327,7 +5260,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5347,7 +5280,7 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5367,33 +5300,13 @@
       <c r="Q169" s="45"/>
       <c r="U169" s="45"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A170" s="44"/>
-      <c r="B170" s="44"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="45"/>
-      <c r="E170" s="44"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="46"/>
-      <c r="I170" s="44"/>
-      <c r="J170" s="46"/>
-      <c r="K170" s="51"/>
-      <c r="L170" s="44"/>
-      <c r="M170" s="44"/>
-      <c r="N170" s="44"/>
-      <c r="O170" s="44"/>
-      <c r="P170" s="46"/>
-      <c r="Q170" s="45"/>
-      <c r="U170" s="45"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 T1:T1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 T1:T1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5425,27 +5338,27 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>54</v>
       </c>
@@ -5501,7 +5414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5521,7 +5434,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5541,7 +5454,7 @@
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5575,34 +5488,34 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:11" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
@@ -5637,9 +5550,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+    <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5650,9 +5563,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+    <row r="4" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5663,9 +5576,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+    <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5676,9 +5589,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+    <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5689,9 +5602,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+    <row r="7" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5702,9 +5615,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+    <row r="8" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5715,9 +5628,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+    <row r="9" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5728,9 +5641,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+    <row r="10" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5741,7 +5654,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5775,54 +5688,54 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -5863,7 +5776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5878,7 +5791,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5893,7 +5806,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5908,7 +5821,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5923,7 +5836,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5938,7 +5851,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5953,7 +5866,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5968,7 +5881,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5983,7 +5896,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5998,7 +5911,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6013,7 +5926,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6028,7 +5941,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6043,7 +5956,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6089,54 +6002,54 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6177,7 +6090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6192,7 +6105,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6207,7 +6120,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6222,7 +6135,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6237,7 +6150,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6252,7 +6165,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6267,7 +6180,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6282,7 +6195,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6297,7 +6210,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6312,7 +6225,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6327,7 +6240,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6342,7 +6255,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6357,7 +6270,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6403,54 +6316,54 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6491,7 +6404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6506,7 +6419,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6521,7 +6434,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6536,7 +6449,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6551,7 +6464,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6566,7 +6479,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6581,7 +6494,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6596,7 +6509,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6611,7 +6524,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6626,7 +6539,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6641,7 +6554,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6656,7 +6569,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6671,7 +6584,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6717,56 +6630,56 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6807,7 +6720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6822,7 +6735,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6837,7 +6750,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6852,7 +6765,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6867,7 +6780,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6882,7 +6795,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6897,7 +6810,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6912,7 +6825,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6927,7 +6840,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6942,7 +6855,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6957,7 +6870,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6972,7 +6885,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6987,7 +6900,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7033,18 +6946,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -7070,7 +6983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7080,7 +6993,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7090,7 +7003,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7100,7 +7013,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7110,7 +7023,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7120,7 +7033,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7130,7 +7043,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7140,7 +7053,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7150,7 +7063,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7160,7 +7073,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7170,7 +7083,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7180,7 +7093,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7190,7 +7103,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7200,7 +7113,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7210,7 +7123,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7220,7 +7133,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7230,7 +7143,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7240,7 +7153,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
